--- a/scraped_data/research_data.xlsx
+++ b/scraped_data/research_data.xlsx
@@ -16,18 +16,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="1">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <b val="1"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
@@ -41,7 +33,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -49,30 +41,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -438,96 +412,14 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="14" customWidth="1" min="1" max="1"/>
-    <col width="17" customWidth="1" min="2" max="2"/>
-    <col width="15" customWidth="1" min="3" max="3"/>
-    <col width="14" customWidth="1" min="4" max="4"/>
-    <col width="15" customWidth="1" min="5" max="5"/>
-    <col width="19" customWidth="1" min="6" max="6"/>
-    <col width="25" customWidth="1" min="7" max="7"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Product Code</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Number of Items</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Highest Price</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Lowest Price</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Average Price</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Most Common Price</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Top Competitor Location</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>C211WDG</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>25</v>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>GH₵ 11500.00</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>GH₵ 9799.00</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>GH₵ 10017.27</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>GH₵ 9799.00</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>Accra Metropolitan</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>